--- a/simulation_data/iterative_algorithm/i_error_level_2_percent_water_1.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_2_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.13070135882454</v>
+        <v>89.99904076774557</v>
       </c>
       <c r="D2" t="n">
-        <v>2.341053345384595</v>
+        <v>2.076104489558793</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.19061390489998</v>
+        <v>89.0430271888581</v>
       </c>
       <c r="D3" t="n">
-        <v>2.410717863898455</v>
+        <v>2.173343444592863</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.74880221689297</v>
+        <v>87.72796937368972</v>
       </c>
       <c r="D4" t="n">
-        <v>2.305825886451707</v>
+        <v>2.391010404976695</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.91994778869208</v>
+        <v>87.07938309194036</v>
       </c>
       <c r="D5" t="n">
-        <v>2.081271979291149</v>
+        <v>1.904848862205825</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.69753581622271</v>
+        <v>85.78546862650325</v>
       </c>
       <c r="D6" t="n">
-        <v>2.288017679715599</v>
+        <v>1.968738863275194</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.17323011830403</v>
+        <v>85.00281934283265</v>
       </c>
       <c r="D7" t="n">
-        <v>2.082247483675792</v>
+        <v>2.047399110232952</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.10224558964826</v>
+        <v>84.24030996509063</v>
       </c>
       <c r="D8" t="n">
-        <v>2.09423699487586</v>
+        <v>2.124950209607107</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.07648992660089</v>
+        <v>83.16996746997161</v>
       </c>
       <c r="D9" t="n">
-        <v>2.289096400231416</v>
+        <v>1.951088692144536</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.65223677424932</v>
+        <v>82.00826881801687</v>
       </c>
       <c r="D10" t="n">
-        <v>2.28403879208007</v>
+        <v>2.205768421897712</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.05077402817007</v>
+        <v>80.95499881501583</v>
       </c>
       <c r="D11" t="n">
-        <v>2.106014299178029</v>
+        <v>2.005940646881597</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.71242961257563</v>
+        <v>79.84175519053096</v>
       </c>
       <c r="D12" t="n">
-        <v>2.275547855077696</v>
+        <v>1.916315672576322</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.79188194292396</v>
+        <v>78.8371523990956</v>
       </c>
       <c r="D13" t="n">
-        <v>2.281932436558388</v>
+        <v>1.974306685003157</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.10397716727046</v>
+        <v>77.8205022078527</v>
       </c>
       <c r="D14" t="n">
-        <v>2.235478964607486</v>
+        <v>2.172310644271906</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.78118581034266</v>
+        <v>76.78890501848993</v>
       </c>
       <c r="D15" t="n">
-        <v>2.09179073607679</v>
+        <v>2.206721271418657</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.96898105638887</v>
+        <v>75.81927517335524</v>
       </c>
       <c r="D16" t="n">
-        <v>2.50650679812165</v>
+        <v>2.171517062209197</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.14939739926488</v>
+        <v>74.88987827684603</v>
       </c>
       <c r="D17" t="n">
-        <v>1.813666933156767</v>
+        <v>2.066342236149837</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.576101782059</v>
+        <v>74.21687646908831</v>
       </c>
       <c r="D18" t="n">
-        <v>2.486485302584448</v>
+        <v>2.290635353836143</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.78951684748039</v>
+        <v>73.02065115478474</v>
       </c>
       <c r="D19" t="n">
-        <v>2.115315088418563</v>
+        <v>2.209328332813056</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.07121423454076</v>
+        <v>72.1518258206584</v>
       </c>
       <c r="D20" t="n">
-        <v>2.179235886195895</v>
+        <v>2.212232668086118</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.87567170131395</v>
+        <v>70.91252255040689</v>
       </c>
       <c r="D21" t="n">
-        <v>2.2370219035092</v>
+        <v>1.788341311066462</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.72768987934492</v>
+        <v>70.00493792943371</v>
       </c>
       <c r="D22" t="n">
-        <v>2.236035814988424</v>
+        <v>2.240856989602635</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.94362835874131</v>
+        <v>69.29670217836654</v>
       </c>
       <c r="D23" t="n">
-        <v>2.267523504339136</v>
+        <v>2.116660619071055</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.11034749157143</v>
+        <v>68.28047718447593</v>
       </c>
       <c r="D24" t="n">
-        <v>2.067005176707624</v>
+        <v>2.269399429407988</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.18888023240741</v>
+        <v>66.96503091547949</v>
       </c>
       <c r="D25" t="n">
-        <v>2.467719782504298</v>
+        <v>2.371782484578496</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.1469512506428</v>
+        <v>65.75256341443023</v>
       </c>
       <c r="D26" t="n">
-        <v>2.088913305651682</v>
+        <v>2.044905179111389</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.50840579581946</v>
+        <v>64.60096507249459</v>
       </c>
       <c r="D27" t="n">
-        <v>2.204439887026997</v>
+        <v>2.022093087085138</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.17978204684486</v>
+        <v>64.00643806704561</v>
       </c>
       <c r="D28" t="n">
-        <v>1.974173782316475</v>
+        <v>2.072626756261212</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.07462590841804</v>
+        <v>62.7978000404738</v>
       </c>
       <c r="D29" t="n">
-        <v>2.090711422854874</v>
+        <v>1.996013622369955</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.7894523663844</v>
+        <v>61.90541909027453</v>
       </c>
       <c r="D30" t="n">
-        <v>1.976474917285378</v>
+        <v>2.141185468658835</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.86324887028446</v>
+        <v>60.98857353239733</v>
       </c>
       <c r="D31" t="n">
-        <v>2.197020479949421</v>
+        <v>2.152871830551665</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.04107616366795</v>
+        <v>59.95758803806089</v>
       </c>
       <c r="D32" t="n">
-        <v>2.052922030176628</v>
+        <v>2.196843228037636</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.00154110877647</v>
+        <v>58.81307380099257</v>
       </c>
       <c r="D33" t="n">
-        <v>2.133189717535084</v>
+        <v>2.176725219082902</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.04700403642911</v>
+        <v>57.87272335694576</v>
       </c>
       <c r="D34" t="n">
-        <v>2.373465997333904</v>
+        <v>2.150930396656077</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.8308302569209</v>
+        <v>57.34775664956103</v>
       </c>
       <c r="D35" t="n">
-        <v>2.213005132110297</v>
+        <v>1.99801858480736</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.09538602679166</v>
+        <v>55.82607483345117</v>
       </c>
       <c r="D36" t="n">
-        <v>2.315780692379836</v>
+        <v>2.153930202695834</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.91480648034517</v>
+        <v>55.35340272523644</v>
       </c>
       <c r="D37" t="n">
-        <v>2.007163738748887</v>
+        <v>2.106495777898387</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.96546263529073</v>
+        <v>54.04282792628861</v>
       </c>
       <c r="D38" t="n">
-        <v>2.289707664354517</v>
+        <v>2.185283553331174</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.79576162046481</v>
+        <v>53.38132041694416</v>
       </c>
       <c r="D39" t="n">
-        <v>2.156687170235413</v>
+        <v>2.18523493954414</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.7062173416049</v>
+        <v>52.28411142622545</v>
       </c>
       <c r="D40" t="n">
-        <v>2.047999848241662</v>
+        <v>1.86012333014305</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.11111457035853</v>
+        <v>50.54816615009629</v>
       </c>
       <c r="D41" t="n">
-        <v>2.086378843956509</v>
+        <v>2.303761383949275</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.5826610019464</v>
+        <v>50.14871816693788</v>
       </c>
       <c r="D42" t="n">
-        <v>2.10067526129672</v>
+        <v>2.505233034324788</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.76178393387791</v>
+        <v>48.96115241609618</v>
       </c>
       <c r="D43" t="n">
-        <v>2.384756051211645</v>
+        <v>2.375344190584066</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.40720874888559</v>
+        <v>48.11867309877899</v>
       </c>
       <c r="D44" t="n">
-        <v>2.444194248626823</v>
+        <v>2.133625717265869</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.88843257771625</v>
+        <v>47.63432733381719</v>
       </c>
       <c r="D45" t="n">
-        <v>2.190845224315941</v>
+        <v>2.360774928929348</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.89408856879188</v>
+        <v>46.34539560110527</v>
       </c>
       <c r="D46" t="n">
-        <v>2.543723549129395</v>
+        <v>2.340610802115259</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.72900452999237</v>
+        <v>44.83456242006693</v>
       </c>
       <c r="D47" t="n">
-        <v>2.155184120406016</v>
+        <v>2.055369245612332</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.30180649831225</v>
+        <v>43.98970188503772</v>
       </c>
       <c r="D48" t="n">
-        <v>2.470617218772113</v>
+        <v>2.186254733137154</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.258149727181</v>
+        <v>43.2483875901907</v>
       </c>
       <c r="D49" t="n">
-        <v>2.173751786169549</v>
+        <v>2.699247900423125</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.70426369761283</v>
+        <v>41.82087609053519</v>
       </c>
       <c r="D50" t="n">
-        <v>2.18028553595718</v>
+        <v>2.003846200477069</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.97551895024669</v>
+        <v>41.01725483005519</v>
       </c>
       <c r="D51" t="n">
-        <v>2.280132281577115</v>
+        <v>2.197397096349929</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.21575132746062</v>
+        <v>39.90239277181935</v>
       </c>
       <c r="D52" t="n">
-        <v>2.235272740615385</v>
+        <v>2.264879450180972</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.777933227838</v>
+        <v>39.10927145644605</v>
       </c>
       <c r="D53" t="n">
-        <v>2.355651568011399</v>
+        <v>2.043554513066469</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.00524824152759</v>
+        <v>37.58261467129113</v>
       </c>
       <c r="D54" t="n">
-        <v>2.541943062304372</v>
+        <v>2.36764407849284</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.2480960723201</v>
+        <v>36.89280463163759</v>
       </c>
       <c r="D55" t="n">
-        <v>2.340546987900733</v>
+        <v>2.242592989777124</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.83887902690736</v>
+        <v>35.60991928518522</v>
       </c>
       <c r="D56" t="n">
-        <v>2.292344580166981</v>
+        <v>1.925038406823953</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.10388746908785</v>
+        <v>34.76583881943498</v>
       </c>
       <c r="D57" t="n">
-        <v>2.227812858043117</v>
+        <v>2.103804703080296</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.8852068102471</v>
+        <v>34.14559952416367</v>
       </c>
       <c r="D58" t="n">
-        <v>2.324008140634556</v>
+        <v>2.436831618689229</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.98893804713851</v>
+        <v>33.14285359000981</v>
       </c>
       <c r="D59" t="n">
-        <v>2.14331066521244</v>
+        <v>2.124006084009674</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.12537177786817</v>
+        <v>32.16192796235599</v>
       </c>
       <c r="D60" t="n">
-        <v>2.487668775787921</v>
+        <v>2.322754570681971</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.94135364083162</v>
+        <v>30.93791694243113</v>
       </c>
       <c r="D61" t="n">
-        <v>2.165917697510968</v>
+        <v>2.322918633445306</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.00039513724205</v>
+        <v>30.04722941338116</v>
       </c>
       <c r="D62" t="n">
-        <v>2.36077650072904</v>
+        <v>1.966087330431767</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.71009013170471</v>
+        <v>29.07629558714057</v>
       </c>
       <c r="D63" t="n">
-        <v>2.232070079341361</v>
+        <v>2.153070381175894</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.28135124412088</v>
+        <v>27.95706270760723</v>
       </c>
       <c r="D64" t="n">
-        <v>2.235504790432971</v>
+        <v>2.017113860762223</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.73170787595022</v>
+        <v>27.40881518780202</v>
       </c>
       <c r="D65" t="n">
-        <v>2.315467163949382</v>
+        <v>2.195131012490428</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.1662926558574</v>
+        <v>26.49809241745176</v>
       </c>
       <c r="D66" t="n">
-        <v>2.36144937327932</v>
+        <v>2.16759970912385</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.03011129983467</v>
+        <v>24.65766744675201</v>
       </c>
       <c r="D67" t="n">
-        <v>2.158333512201197</v>
+        <v>2.129406258513287</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.89029666491714</v>
+        <v>23.8331489467257</v>
       </c>
       <c r="D68" t="n">
-        <v>2.022532096517441</v>
+        <v>1.906513530157546</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.13496839977497</v>
+        <v>22.79653422520057</v>
       </c>
       <c r="D69" t="n">
-        <v>2.230722854997701</v>
+        <v>1.985939098383335</v>
       </c>
     </row>
   </sheetData>
